--- a/BITACORA ETAPA PRODUCTIVA(10)(1).xlsx
+++ b/BITACORA ETAPA PRODUCTIVA(10)(1).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Desktop\Contrato de Aprendizaje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferney.ruiz\Documents\GitHub\Files-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Hoja4" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$X$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$X$49</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>SERVICIO NACIONAL DE APRENDIZAJE SENA</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Teléfonos</t>
   </si>
   <si>
-    <t>De acuerdo a la tarea que haya realizado el aprendiz este debe de identificar a que competencia de aprendizaje pertenece la actividad y colocarla en este espacio esta informacion la encontrara en el programa de formacion que se encuentra en la plataforma,</t>
-  </si>
-  <si>
     <t>Ferney David Ruiz Padilla</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>fdruiz059@misena.edu.co</t>
   </si>
   <si>
-    <t>Analisis y Desarrollo de Sistemas de Información</t>
-  </si>
-  <si>
     <t>Carlos Caro</t>
   </si>
   <si>
@@ -232,13 +226,94 @@
   </si>
   <si>
     <t>Bussiness Intelligence</t>
+  </si>
+  <si>
+    <t>Josemar David Sierra Ramirez</t>
+  </si>
+  <si>
+    <t>jsierra@lisim.com</t>
+  </si>
+  <si>
+    <t>Análisis y Desarrollo de Sistemas de Información</t>
+  </si>
+  <si>
+    <t>27/2/2018</t>
+  </si>
+  <si>
+    <t>13/3/2018</t>
+  </si>
+  <si>
+    <t>Inducción de las diferentes areas de la empresa en general , normas, politicas y asignación del puesto de trabajo.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>240201500-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PROMOVER LA INTERACCIÓN IDÓNEA CONSIGO MISMO, CON LOS DEMÁS Y CON LA
+NATURALEZA EN LOS CONTEXTOS LABORAL Y SOCIAL.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>220501035-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>APLICAR BUENAS PRÁCTICAS DE CALIDAD EN EL PROCESO DE DESARROLLO DE SOFTWARE,
+DE ACUERDO CON EL REFERENTE ADOPTADO EN LA EMPRESA.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ingeniero Proyecto Senior</t>
+  </si>
+  <si>
+    <t>Funciones, procedimientos, tareas especificas del cargo,captura de horas, incluir procedimientos del SIG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curso SQL-Server aprendiendo conulstas simples, consultas multitablas, funciones de agregado.
+</t>
+  </si>
+  <si>
+    <t>Indagar sobre (ETL) Extract, Transform and Load una herramienta de Visual Studio para la extracción transformación y carga datos de diferentes orígenes (Txt, Excel) a diferentes destinos (SQL-Server,Excel).</t>
+  </si>
+  <si>
+    <t>Cargar los datos de un Excel a una tabla de SQL- Server con una  PowerPivot-Excel.</t>
+  </si>
+  <si>
+    <t>Cargar datos de un archivo plano (txt) a una tabla SQL y de SQL a (txt) por medio de una ETL con Visual Studio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,12 +412,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -662,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -787,128 +856,144 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -941,21 +1026,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -965,96 +1035,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1091,7 +1187,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 2" descr="Descripción: logo_membrete"/>
+        <xdr:cNvPr id="1027" name="Picture 2" descr="Descripción: logo_membrete">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1223,6 +1325,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1258,6 +1377,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1434,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X79"/>
+  <dimension ref="A1:X88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:E38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1446,13 +1582,14 @@
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
-    <col min="13" max="14" width="6" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
     <col min="15" max="22" width="5.7109375" customWidth="1"/>
     <col min="23" max="23" width="0.7109375" customWidth="1"/>
     <col min="24" max="24" width="0.85546875" customWidth="1"/>
@@ -1460,138 +1597,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="133"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="121" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="123"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="71"/>
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="117"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="124" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="126"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="74"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="127" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="129"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="77"/>
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="117"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="127" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="129"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="77"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="119"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="130" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="132"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="80"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1620,30 +1757,30 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" s="27" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1704,24 +1841,24 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="96" t="s">
+      <c r="E10" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
       <c r="S10" s="30" t="s">
         <v>11</v>
       </c>
@@ -1753,9 +1890,9 @@
       <c r="M11" s="6"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
       <c r="S11" s="38"/>
       <c r="T11" s="52"/>
       <c r="U11" s="52"/>
@@ -1769,26 +1906,26 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="109">
+      <c r="E12" s="108">
         <v>1056592950</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
       <c r="K12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="96"/>
+      <c r="L12" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
       <c r="S12" s="30" t="s">
         <v>12</v>
       </c>
@@ -1835,33 +1972,33 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="104" t="s">
+      <c r="E14" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
       <c r="N14" s="53">
         <v>27</v>
       </c>
       <c r="O14" s="53" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P14" s="53">
         <v>2018</v>
       </c>
-      <c r="Q14" s="103" t="s">
+      <c r="Q14" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="104"/>
-      <c r="S14" s="105"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="68"/>
       <c r="T14" s="51">
         <v>27</v>
       </c>
@@ -1905,30 +2042,30 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="138" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="140"/>
+      <c r="E16" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="91"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="25" t="s">
         <v>4</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="116">
+      <c r="T16" s="92">
         <v>1193307</v>
       </c>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:24" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -1963,32 +2100,32 @@
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="58">
+      <c r="E18" s="93">
         <v>3002876907</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="65" t="s">
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62" t="s">
+      <c r="I18" s="136"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:24" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,30 +2204,30 @@
       <c r="W21" s="31"/>
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2152,29 +2289,29 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="108"/>
+      <c r="F25" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="85"/>
       <c r="Q25" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R25" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="108"/>
+      <c r="R25" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="85"/>
       <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2208,35 +2345,35 @@
         <v>19</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="D27" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="85"/>
       <c r="L27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
+      <c r="M27" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
       <c r="Q27" s="48" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="49"/>
-      <c r="S27" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
+      <c r="S27" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
       <c r="W27" s="22"/>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2270,31 +2407,35 @@
         <v>22</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="62" t="s">
+      <c r="D29" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="63"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="108"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="85"/>
       <c r="Q29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="108"/>
+      <c r="R29" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="85"/>
       <c r="W29" s="22"/>
     </row>
     <row r="30" spans="1:24" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2325,32 +2466,36 @@
       <c r="B31" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="113" t="s">
+      <c r="C31" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="J31" s="114"/>
+      <c r="J31" s="97"/>
       <c r="K31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
       <c r="Q31" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="135"/>
-      <c r="S31" s="136"/>
-      <c r="T31" s="136"/>
-      <c r="U31" s="136"/>
-      <c r="V31" s="137"/>
+      <c r="R31" s="86">
+        <v>3168755152</v>
+      </c>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="88"/>
       <c r="W31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2403,30 +2548,30 @@
       <c r="W33" s="31"/>
     </row>
     <row r="34" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="90"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="90"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2456,286 +2601,420 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="68" t="s">
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="82" t="s">
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="143"/>
+      <c r="O36" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="84" t="s">
+      <c r="P36" s="145"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="145"/>
+      <c r="S36" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="86"/>
+      <c r="T36" s="112"/>
+      <c r="U36" s="112"/>
+      <c r="V36" s="113"/>
       <c r="W36" s="23"/>
     </row>
     <row r="37" spans="1:24" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="83" t="s">
+      <c r="B37" s="140"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="141"/>
+      <c r="M37" s="141"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="83" t="s">
+      <c r="P37" s="146"/>
+      <c r="Q37" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="R37" s="83"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88"/>
-      <c r="V37" s="89"/>
+      <c r="R37" s="146"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="115"/>
+      <c r="U37" s="115"/>
+      <c r="V37" s="116"/>
       <c r="W37" s="23"/>
     </row>
     <row r="38" spans="1:24" s="4" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="93"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="95"/>
+      <c r="B38" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38" s="118"/>
+      <c r="S38" s="119"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="121"/>
       <c r="W38" s="23"/>
     </row>
-    <row r="39" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="76"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="95"/>
+    <row r="39" spans="1:24" s="4" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="124"/>
+      <c r="O39" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="R39" s="118"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="120"/>
+      <c r="U39" s="120"/>
+      <c r="V39" s="121"/>
       <c r="W39" s="23"/>
     </row>
-    <row r="40" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="95"/>
+    <row r="40" spans="1:24" s="4" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="124"/>
+      <c r="O40" s="117">
+        <v>43223</v>
+      </c>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="R40" s="118"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="57"/>
       <c r="W40" s="23"/>
     </row>
-    <row r="41" spans="1:24" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="31"/>
-    </row>
-    <row r="42" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="90" t="s">
+    <row r="41" spans="1:24" s="4" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="117"/>
+      <c r="R41" s="118"/>
+      <c r="S41" s="147"/>
+      <c r="T41" s="148"/>
+      <c r="U41" s="148"/>
+      <c r="V41" s="149"/>
+      <c r="W41" s="23"/>
+    </row>
+    <row r="42" spans="1:24" s="4" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="R42" s="118"/>
+      <c r="S42" s="147"/>
+      <c r="T42" s="148"/>
+      <c r="U42" s="148"/>
+      <c r="V42" s="149"/>
+      <c r="W42" s="23"/>
+    </row>
+    <row r="43" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="117">
+        <v>43223</v>
+      </c>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="R43" s="118"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="23"/>
+    </row>
+    <row r="44" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="58"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="123"/>
+      <c r="N44" s="124"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="118"/>
+      <c r="S44" s="119"/>
+      <c r="T44" s="120"/>
+      <c r="U44" s="120"/>
+      <c r="V44" s="121"/>
+      <c r="W44" s="23"/>
+    </row>
+    <row r="45" spans="1:24" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="31"/>
+    </row>
+    <row r="46" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="2"/>
-    </row>
-    <row r="43" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="2"/>
-    </row>
-    <row r="44" spans="1:24" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="55" t="s">
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
+      <c r="S46" s="62"/>
+      <c r="T46" s="62"/>
+      <c r="U46" s="62"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="2"/>
+    </row>
+    <row r="47" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="2"/>
+    </row>
+    <row r="48" spans="1:24" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="23"/>
-    </row>
-    <row r="45" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25"/>
-    <row r="49" x14ac:dyDescent="0.25"/>
-    <row r="50" x14ac:dyDescent="0.25"/>
-    <row r="51" x14ac:dyDescent="0.25"/>
-    <row r="52" x14ac:dyDescent="0.25"/>
-    <row r="53" x14ac:dyDescent="0.25"/>
-    <row r="54" x14ac:dyDescent="0.25"/>
-    <row r="55" x14ac:dyDescent="0.25"/>
-    <row r="56" x14ac:dyDescent="0.25"/>
-    <row r="57" x14ac:dyDescent="0.25"/>
-    <row r="58" x14ac:dyDescent="0.25"/>
-    <row r="59" x14ac:dyDescent="0.25"/>
-    <row r="60" x14ac:dyDescent="0.25"/>
-    <row r="61" x14ac:dyDescent="0.25"/>
-    <row r="62" x14ac:dyDescent="0.25"/>
-    <row r="63" x14ac:dyDescent="0.25"/>
-    <row r="64" x14ac:dyDescent="0.25"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="129"/>
+      <c r="T48" s="129"/>
+      <c r="U48" s="129"/>
+      <c r="V48" s="130"/>
+      <c r="W48" s="23"/>
+    </row>
+    <row r="49" spans="2:23" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25"/>
     <row r="65" x14ac:dyDescent="0.25"/>
     <row r="66" x14ac:dyDescent="0.25"/>
     <row r="67" x14ac:dyDescent="0.25"/>
@@ -2751,18 +3030,61 @@
     <row r="77" x14ac:dyDescent="0.25"/>
     <row r="78" x14ac:dyDescent="0.25"/>
     <row r="79" x14ac:dyDescent="0.25"/>
+    <row r="80" x14ac:dyDescent="0.25"/>
+    <row r="81" x14ac:dyDescent="0.25"/>
+    <row r="82" x14ac:dyDescent="0.25"/>
+    <row r="83" x14ac:dyDescent="0.25"/>
+    <row r="84" x14ac:dyDescent="0.25"/>
+    <row r="85" x14ac:dyDescent="0.25"/>
+    <row r="86" x14ac:dyDescent="0.25"/>
+    <row r="87" x14ac:dyDescent="0.25"/>
+    <row r="88" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B34:W34"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="D1:W1"/>
-    <mergeCell ref="D2:W2"/>
-    <mergeCell ref="D4:W4"/>
-    <mergeCell ref="D3:W3"/>
-    <mergeCell ref="D5:W5"/>
-    <mergeCell ref="B7:W7"/>
+  <mergeCells count="81">
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="F41:N41"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="B48:V48"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B36:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F36:N37"/>
+    <mergeCell ref="F38:N38"/>
+    <mergeCell ref="F39:N39"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S36:V37"/>
+    <mergeCell ref="B46:W46"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="F44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:V44"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="F40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="B40:E40"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2779,6 +3101,18 @@
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="D27:K27"/>
     <mergeCell ref="M27:P27"/>
+    <mergeCell ref="D1:W1"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="D4:W4"/>
+    <mergeCell ref="D3:W3"/>
+    <mergeCell ref="D5:W5"/>
+    <mergeCell ref="F43:N43"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B34:W34"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B7:W7"/>
     <mergeCell ref="D29:I29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:P29"/>
@@ -2788,49 +3122,22 @@
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="E14:J14"/>
     <mergeCell ref="E12:J12"/>
-    <mergeCell ref="S36:V37"/>
-    <mergeCell ref="B42:W42"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="F40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="B44:V44"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B36:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F36:N37"/>
-    <mergeCell ref="F38:N38"/>
-    <mergeCell ref="F39:N39"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
   </mergeCells>
   <dataValidations xWindow="662" yWindow="599" count="2">
-    <dataValidation type="textLength" errorStyle="information" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo 300 caracteres" error="Excede el número maximo de caracteres_x000a_" promptTitle="Introducir " prompt="Máximo 300 caracteres" sqref="F39:N40">
-      <formula1>200</formula1>
-    </dataValidation>
     <dataValidation type="textLength" errorStyle="information" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo 300 caracteres" error="Excede el número maximo de caracteres" promptTitle="Introducir " prompt="Máximo 300 caracteres" sqref="F38:N38">
       <formula1>300</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" errorStyle="information" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo 300 caracteres" error="Excede el número maximo de caracteres_x000a_" promptTitle="Introducir " prompt="Máximo 300 caracteres" sqref="G44:N44 G39:N40 F39:F44">
+      <formula1>200</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E14" r:id="rId1"/>
+    <hyperlink ref="C31" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="662" yWindow="599" count="3">
